--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2636182.751441744</v>
+        <v>2633930.671730537</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>131.9577048658561</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>374.3724651321496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,19 +817,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>258.2317318494232</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>224.7562560951392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>96.32693285396928</v>
+        <v>129.5398680316074</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>134.631133566647</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>33.51083321952625</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>188.8108690340859</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091483</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>34.98723076369749</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,16 +1345,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805175974</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>66.25628701154264</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.9367233701397</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060277</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>113.6427030833204</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127826</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.35562273557</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1340.243929312808</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>954.4556767145634</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1320.35562273557</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064755</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>1705.527932658019</v>
+        <v>1163.171458061136</v>
       </c>
       <c r="V4" t="n">
-        <v>1705.527932658019</v>
+        <v>908.4869698552495</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>619.069799818289</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,16 +4565,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4638,25 +4638,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>846.3749096777597</v>
+        <v>669.4690763615333</v>
       </c>
       <c r="C7" t="n">
-        <v>677.4387267498528</v>
+        <v>500.5328934336264</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>350.4162540212907</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>846.3749096777597</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X7" t="n">
-        <v>846.3749096777597</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.3749096777597</v>
+        <v>851.1175411917731</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221569</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281157</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744068</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761626</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>77.5441625467829</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136267</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792697</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522582</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285691</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,40 +4887,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>883.4114536130586</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C10" t="n">
-        <v>714.4752706851517</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D10" t="n">
-        <v>564.358631272816</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>416.4455376904228</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>269.5555901925125</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>101.8527535672314</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484846</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.842048484846</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1513.842048484846</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1285.852497586828</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1065.059918443298</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622216</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3737171343147</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D13" t="n">
-        <v>597.2570777219789</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>449.3439841395858</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>302.4540366416754</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832658</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832658</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176856</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970969</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934009</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035991</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892461</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367892</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>484.2179484367892</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.2179484367892</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>198.027470314254</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6680,52 +6680,52 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474785</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459582</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180513</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D34" t="n">
-        <v>599.6019060180513</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,40 +6944,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>565.7099969556945</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7260,16 +7260,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
         <v>402.7245934908939</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664526</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>99.26785128072621</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5874149221291134</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>62.35543909864957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253398</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.572894581492</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>32.79125956324879</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520045</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="H2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520048</v>
-      </c>
       <c r="K2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93403.78684820645</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93403.78684820635</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820636</v>
-      </c>
-      <c r="C4" t="n">
-        <v>93403.78684820636</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93403.78684820626</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26430,13 +26430,13 @@
         <v>14216.75207685507</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26445,10 +26445,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873249.0572457658</v>
+        <v>-873249.0572457652</v>
       </c>
       <c r="C6" t="n">
-        <v>455495.6884818268</v>
+        <v>455495.6884818265</v>
       </c>
       <c r="D6" t="n">
-        <v>455495.6884818266</v>
+        <v>455495.688481827</v>
       </c>
       <c r="E6" t="n">
-        <v>204965.5360438876</v>
+        <v>204930.7981184519</v>
       </c>
       <c r="F6" t="n">
-        <v>530377.9978512428</v>
+        <v>530343.2599258075</v>
       </c>
       <c r="G6" t="n">
-        <v>530377.9978512429</v>
+        <v>530343.2599258068</v>
       </c>
       <c r="H6" t="n">
-        <v>530377.9978512427</v>
+        <v>530343.2599258072</v>
       </c>
       <c r="I6" t="n">
-        <v>530377.9978512429</v>
+        <v>530343.259925807</v>
       </c>
       <c r="J6" t="n">
-        <v>312846.7954539651</v>
+        <v>312812.0575285297</v>
       </c>
       <c r="K6" t="n">
-        <v>530377.997851243</v>
+        <v>530343.2599258075</v>
       </c>
       <c r="L6" t="n">
-        <v>530377.9978512429</v>
+        <v>530343.2599258076</v>
       </c>
       <c r="M6" t="n">
-        <v>445322.9699157311</v>
+        <v>445288.2319902955</v>
       </c>
       <c r="N6" t="n">
-        <v>530377.9978512427</v>
+        <v>530343.2599258075</v>
       </c>
       <c r="O6" t="n">
-        <v>530377.997851243</v>
+        <v>530343.2599258072</v>
       </c>
       <c r="P6" t="n">
-        <v>530377.9978512427</v>
+        <v>530343.2599258071</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,25 +26960,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483752</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>274.9183408758553</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.86547352390397</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>27.98010635618965</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>61.76674224145185</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>289.9110058020843</v>
+        <v>256.6980706244461</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>10.12388134767377</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>253.0121651170647</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>218.0651767076255</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.0718894304718</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>109.7677841506233</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28096,13 +28096,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-3.133357123884627e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29463,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,16 +31835,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32005,7 +32005,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
         <v>981.2715114159425</v>
@@ -32020,7 +32020,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,19 +32315,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,10 +32555,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>597.1709559744729</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>567.7870775946146</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33980,31 +33980,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>364.3208035245826</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,16 +34445,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.402257299894</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>455.0369220524547</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010467</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>425.1908331501702</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>224.3390294385611</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
